--- a/data/expt_2/raw_transcripts/game30.xlsx
+++ b/data/expt_2/raw_transcripts/game30.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0061.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0061.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H187">
+    <comment ref="H187" authorId="0">
       <text>
-        <t xml:space="preserve">this one is a little ambiguous, because i'm not sure if she meant the figure 'is jumping and has the square' or if she just meant the figure with the square is jumping, but misspoke.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">this one is a little ambiguous, because i'm not sure if she meant the figure 'is jumping and has the square' or if she just meant the figure with the square is jumping, but misspoke.
 	-Rebecca Jacqueline Pizzitola</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -29,37 +45,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="201">
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, great! Now we're recording!</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Thank you guys so much for playing my game.</t>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you guys so much for playing my game.</t>
   </si>
   <si>
     <t xml:space="preserve"> Today we're going to play a really fun matching game, okay?</t>
@@ -68,43 +84,43 @@
     <t xml:space="preserve"> But before we start, we're going to practice touching our iPads by playing a really fun bubble popping game.</t>
   </si>
   <si>
-    <t>Are you guys ready?</t>
+    <t xml:space="preserve">Are you guys ready?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so you're going to press the blue arrow on your screens,</t>
   </si>
   <si>
-    <t>and you're going to touch all of the bubbles on your screen to make them pop.</t>
-  </si>
-  <si>
-    <t>Good job.</t>
+    <t xml:space="preserve">and you're going to touch all of the bubbles on your screen to make them pop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job.</t>
   </si>
   <si>
     <t xml:space="preserve"> Nice, nice touching.</t>
   </si>
   <si>
-    <t>Keep going.</t>
-  </si>
-  <si>
-    <t>What is this?</t>
-  </si>
-  <si>
-    <t>apple127</t>
+    <t xml:space="preserve">Keep going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple127</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, those are smiley face bubbles.</t>
   </si>
   <si>
-    <t>Oh, good job, [pear128].</t>
-  </si>
-  <si>
-    <t>can I see?</t>
+    <t xml:space="preserve">Oh, good job, [pear128].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can I see?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, look, you finished too.</t>
   </si>
   <si>
-    <t>Thank you so much.</t>
+    <t xml:space="preserve">Thank you so much.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now we're going to start our matching game.</t>
@@ -116,22 +132,22 @@
     <t xml:space="preserve"> So in the game, here sit down, we're going to help our friend Smurphy.</t>
   </si>
   <si>
-    <t>Do you guys want to say hi?</t>
-  </si>
-  <si>
-    <t>Hi [pear128].</t>
+    <t xml:space="preserve">Do you guys want to say hi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi [pear128].</t>
   </si>
   <si>
     <t xml:space="preserve"> Hi, [apple127].</t>
   </si>
   <si>
-    <t>This is Smurphy.</t>
-  </si>
-  <si>
-    <t>But I like the shiny pad with Bufo.</t>
-  </si>
-  <si>
-    <t>It's so pretty.</t>
+    <t xml:space="preserve">This is Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I like the shiny pad with Bufo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's so pretty.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so I'm going to explain how to play.</t>
@@ -140,58 +156,58 @@
     <t xml:space="preserve"> So you are each going to see two pictures on your iPads, okay?</t>
   </si>
   <si>
-    <t>I'm going to explain to you.</t>
-  </si>
-  <si>
-    <t>One of you though is going to see two pictures.</t>
+    <t xml:space="preserve">I'm going to explain to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of you though is going to see two pictures.</t>
   </si>
   <si>
     <t xml:space="preserve"> you see the apple and the banana, but then another one of you is going to see two pictures</t>
   </si>
   <si>
-    <t>with a black square around it.</t>
-  </si>
-  <si>
-    <t>You see?</t>
+    <t xml:space="preserve">with a black square around it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You see?</t>
   </si>
   <si>
     <t xml:space="preserve"> So the person who sees the black square around the banana or whatever picture they have, they're</t>
   </si>
   <si>
-    <t>going to be the teller.</t>
+    <t xml:space="preserve">going to be the teller.</t>
   </si>
   <si>
     <t xml:space="preserve"> So you're going to tell your friend what you see on your screen, okay?</t>
   </si>
   <si>
-    <t>Whatever's in the black box.</t>
+    <t xml:space="preserve">Whatever's in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you're holding Smurphy, that means that you're going to be the guesser and you're not</t>
   </si>
   <si>
-    <t>going to have a black box around your screen and you're going to help Smurphy guess which</t>
-  </si>
-  <si>
-    <t>picture has the black box around it okay so we're going to switch back and forth of who's</t>
-  </si>
-  <si>
-    <t>the teller and who's the guesser so can we play a little game just to practice if we know if we</t>
-  </si>
-  <si>
-    <t>have the black box around our picture what is our what are we called we're the teller right</t>
-  </si>
-  <si>
-    <t>right we're the teller and if we're holding Smurphy who are we</t>
-  </si>
-  <si>
-    <t>We're the guesser.</t>
-  </si>
-  <si>
-    <t>We're going to help Smurphy guess.</t>
-  </si>
-  <si>
-    <t>We're going to help him try and guess which picture has the box.</t>
+    <t xml:space="preserve">going to have a black box around your screen and you're going to help Smurphy guess which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">picture has the black box around it okay so we're going to switch back and forth of who's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the teller and who's the guesser so can we play a little game just to practice if we know if we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have the black box around our picture what is our what are we called we're the teller right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right we're the teller and if we're holding Smurphy who are we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're the guesser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're going to help Smurphy guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're going to help him try and guess which picture has the box.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you help get Smurphy guessed right, you're going to see a happy face on your screen.</t>
@@ -203,22 +219,22 @@
     <t xml:space="preserve"> But that's okay, because you have lots of chances to help Smurphy.</t>
   </si>
   <si>
-    <t>Okay?</t>
-  </si>
-  <si>
-    <t>Are we ready to play?</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>But I already know which one is the box one this one.</t>
+    <t xml:space="preserve">Okay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are we ready to play?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I already know which one is the box one this one.</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly, but it's going to switch so you'll see it on your screens, okay?</t>
   </si>
   <si>
-    <t>So you guys can go ahead and press the blue button to start.</t>
+    <t xml:space="preserve">So you guys can go ahead and press the blue button to start.</t>
   </si>
   <si>
     <t xml:space="preserve"> I mean, touch it, sorry.</t>
@@ -233,7 +249,7 @@
     <t xml:space="preserve"> That's you, okay?</t>
   </si>
   <si>
-    <t>And so you're going to be the guesser and you're going to be the teller.</t>
+    <t xml:space="preserve">And so you're going to be the guesser and you're going to be the teller.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so can you tell Smurphy and [pear128] what's on your screen, [apple127]?</t>
@@ -242,31 +258,31 @@
     <t xml:space="preserve"> The- the apple's, the- the apple's, the- the box.</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>the apple</t>
-  </si>
-  <si>
-    <t>So you're going to help Smurphy guess which picture has the box.</t>
-  </si>
-  <si>
-    <t>And can you tell her which one has the box?</t>
-  </si>
-  <si>
-    <t>The apple has the box.</t>
-  </si>
-  <si>
-    <t>Can you touch which one has the box?</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Good job!</t>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you're going to help Smurphy guess which picture has the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And can you tell her which one has the box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The apple has the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you touch which one has the box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so now you're the teller, [pear128], and you're the guesser, [apple127].</t>
@@ -275,37 +291,37 @@
     <t xml:space="preserve"> Yes, so can you tell [apple127] and Smurphy which picture has the box around it?</t>
   </si>
   <si>
-    <t>umm, the bird.</t>
-  </si>
-  <si>
-    <t>pear128</t>
-  </si>
-  <si>
-    <t>the bird</t>
+    <t xml:space="preserve">umm, the bird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pear128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the bird</t>
   </si>
   <si>
     <t xml:space="preserve"> The bird. Yay! Good job! Okay, so now you are the guesser, [pear128], and you are the teller, [apple127].</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Can you tell [pear128] which picture is inside the box?</t>
-  </si>
-  <si>
-    <t>The box is the house.</t>
-  </si>
-  <si>
-    <t>the box</t>
-  </si>
-  <si>
-    <t>Which one is?</t>
-  </si>
-  <si>
-    <t>house.</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you tell [pear128] which picture is inside the box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The box is the house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, touch it. Make sure you touch it.</t>
@@ -317,40 +333,40 @@
     <t xml:space="preserve"> and you're the teller [pear128] can you tell your guesser which one has the box around it?</t>
   </si>
   <si>
-    <t>The tree.</t>
-  </si>
-  <si>
-    <t>the tree</t>
-  </si>
-  <si>
-    <t>The tree?</t>
-  </si>
-  <si>
-    <t>in the box?</t>
-  </si>
-  <si>
-    <t>Mm-hmm.</t>
-  </si>
-  <si>
-    <t>So you're going to guess which one.</t>
+    <t xml:space="preserve">The tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tree?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mm-hmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you're going to guess which one.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay, good job.</t>
   </si>
   <si>
-    <t>You guys are doing great.</t>
+    <t xml:space="preserve">You guys are doing great.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now you're the guesser, [pear128] and you're the teller, [apple127]?</t>
   </si>
   <si>
-    <t>The human that is walking has the box.</t>
-  </si>
-  <si>
-    <t>the human that is walking</t>
-  </si>
-  <si>
-    <t>Yay! Good job!</t>
+    <t xml:space="preserve">The human that is walking has the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the human that is walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay! Good job!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, you guys are doing amazing. You're going to be the guesser, [apple127]?</t>
@@ -359,67 +375,67 @@
     <t xml:space="preserve"> And you're going to be the teller, [pear128].</t>
   </si>
   <si>
-    <t>What is that one?</t>
-  </si>
-  <si>
-    <t>You have to describe it to her.</t>
-  </si>
-  <si>
-    <t>What does it look like to you?</t>
+    <t xml:space="preserve">What is that one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have to describe it to her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does it look like to you?</t>
   </si>
   <si>
     <t xml:space="preserve"> A square, like, walking.</t>
   </si>
   <si>
-    <t>a square like walking</t>
+    <t xml:space="preserve">a square like walking</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, did you hear that, [apple127]?</t>
   </si>
   <si>
-    <t>Uh-huh.</t>
-  </si>
-  <si>
-    <t>Now you can...</t>
-  </si>
-  <si>
-    <t>square walking</t>
-  </si>
-  <si>
-    <t>Pick the one that looks like that one.</t>
-  </si>
-  <si>
-    <t>This one?</t>
-  </si>
-  <si>
-    <t>Or this one?</t>
-  </si>
-  <si>
-    <t>You have to help Smurphy guess.</t>
-  </si>
-  <si>
-    <t>You can pick which one you think.</t>
-  </si>
-  <si>
-    <t>I don't know which one.</t>
-  </si>
-  <si>
-    <t>Do you want to ask her another question about what it looks like?</t>
+    <t xml:space="preserve">Uh-huh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you can...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick the one that looks like that one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or this one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have to help Smurphy guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can pick which one you think.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know which one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to ask her another question about what it looks like?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, you can't look.</t>
   </si>
   <si>
-    <t>Can you tell her again?</t>
+    <t xml:space="preserve">Can you tell her again?</t>
   </si>
   <si>
     <t xml:space="preserve"> Um,</t>
   </si>
   <si>
-    <t>and it has feet.</t>
-  </si>
-  <si>
-    <t>it has feet</t>
+    <t xml:space="preserve">and it has feet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it has feet</t>
   </si>
   <si>
     <t xml:space="preserve"> This?</t>
@@ -428,79 +444,79 @@
     <t xml:space="preserve"> is it, is it, is it, is it, is it the one jumping or bending down and</t>
   </si>
   <si>
-    <t>putting something?</t>
-  </si>
-  <si>
-    <t>um, jumping.</t>
-  </si>
-  <si>
-    <t>jumping</t>
+    <t xml:space="preserve">putting something?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um, jumping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jumping</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay, good job!</t>
   </si>
   <si>
-    <t>You guys did so good. Okay, so now you're the guesser, [pear128], and you're the teller, [apple127].</t>
-  </si>
-  <si>
-    <t>The ship is the one that has the square, the square.</t>
-  </si>
-  <si>
-    <t>the ship</t>
+    <t xml:space="preserve">You guys did so good. Okay, so now you're the guesser, [pear128], and you're the teller, [apple127].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ship is the one that has the square, the square.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ship</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're the guesser, [apple127], and you're the teller, [pear128].</t>
   </si>
   <si>
-    <t>It's the same.</t>
-  </si>
-  <si>
-    <t>The one that has the box on it is the one bending down.</t>
-  </si>
-  <si>
-    <t>the one bending down and holding something</t>
-  </si>
-  <si>
-    <t>and holding something.</t>
-  </si>
-  <si>
-    <t>Yay! Okay, so now you're the guesser, [pear128], and you're the teller, [apple127].</t>
-  </si>
-  <si>
-    <t>The one bending down and holding something is having the box.</t>
+    <t xml:space="preserve">It's the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The one that has the box on it is the one bending down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one bending down and holding something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and holding something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay! Okay, so now you're the guesser, [pear128], and you're the teller, [apple127].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The one bending down and holding something is having the box.</t>
   </si>
   <si>
     <t xml:space="preserve"> You're the guesser now, [apple127], and you're the teller, [pear128].</t>
   </si>
   <si>
-    <t>The one that's walking is the one it- it- it is the box on it.</t>
-  </si>
-  <si>
-    <t>the one that's walking</t>
+    <t xml:space="preserve">The one that's walking is the one it- it- it is the box on it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one that's walking</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're the guesser, [pear128], and you're the teller, [apple127].</t>
   </si>
   <si>
-    <t>The ship has the box.</t>
-  </si>
-  <si>
-    <t>You want to touch it again?</t>
-  </si>
-  <si>
-    <t>The one that's jumping and has a square.</t>
-  </si>
-  <si>
-    <t>the one that's jumping</t>
-  </si>
-  <si>
-    <t>and has feet.</t>
-  </si>
-  <si>
-    <t>has feet</t>
-  </si>
-  <si>
-    <t>Okay, now you're the guesser, [pear128], and you're the teller, [apple127].</t>
+    <t xml:space="preserve">The ship has the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You want to touch it again?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The one that's jumping and has a square.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one that's jumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and has feet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And has feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay, now you're the guesser, [pear128], and you're the teller, [apple127].</t>
   </si>
   <si>
     <t xml:space="preserve"> The human that is walking, bending its head down, is having the square.</t>
@@ -509,28 +525,28 @@
     <t xml:space="preserve">the human that is walking bending its head down </t>
   </si>
   <si>
-    <t>Just touch it, yeah.</t>
+    <t xml:space="preserve">Just touch it, yeah.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that's okay. We can try again. That's okay. Here, now you're gonna be the guesser, [apple127]. And you'll be the teller, [pear128].</t>
   </si>
   <si>
-    <t>The one that's bending down and putting something.</t>
-  </si>
-  <si>
-    <t>the one that's bending down and putting something</t>
+    <t xml:space="preserve">The one that's bending down and putting something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one that's bending down and putting something</t>
   </si>
   <si>
     <t xml:space="preserve"> Ooh, that's okay. We'll keep trying. We'll keep trying. Here. You're gonna be the guesser, [pear128], and you'll be the teller, [apple127].</t>
   </si>
   <si>
-    <t>That's because I didn't hear what [pear128] say.</t>
+    <t xml:space="preserve">That's because I didn't hear what [pear128] say.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, tell [pear128] what you see in your square.</t>
   </si>
   <si>
-    <t>The ship is- the ship is having the box.</t>
+    <t xml:space="preserve">The ship is- the ship is having the box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now you're going to be the guesser, [apple127].</t>
@@ -539,118 +555,140 @@
     <t xml:space="preserve"> And you'll be the teller, [pear128].</t>
   </si>
   <si>
-    <t>The one that's jumping and has the square.</t>
-  </si>
-  <si>
-    <t>I like</t>
-  </si>
-  <si>
-    <t>Smurphy?</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>Smurphy likes you.</t>
-  </si>
-  <si>
-    <t>Smurphy likes you too.</t>
-  </si>
-  <si>
-    <t>Here you go.</t>
-  </si>
-  <si>
-    <t>So you're the guesser now.</t>
-  </si>
-  <si>
-    <t>and you're the teller.</t>
-  </si>
-  <si>
-    <t>And I also have- have a cute bagel.</t>
+    <t xml:space="preserve">The one that's jumping and has the square.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy likes you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy likes you too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you're the guesser now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and you're the teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I also have- have a cute bagel.</t>
   </si>
   <si>
     <t xml:space="preserve"> Aww, that's so cute.</t>
   </si>
   <si>
-    <t>And I also have a blankie that they've faced.</t>
-  </si>
-  <si>
-    <t>Aw.</t>
+    <t xml:space="preserve">And I also have a blankie that they've faced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aw.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, tell [pear128] what you see in the box.</t>
   </si>
   <si>
-    <t>The human that is bending down his head like this, is is is is having the square.</t>
-  </si>
-  <si>
-    <t>the human that is bending down his head like this and walking</t>
-  </si>
-  <si>
-    <t>and walking.</t>
+    <t xml:space="preserve">The human that is bending down his head like this, is is is is having the square.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the human that is bending down his head like this and walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and walking.</t>
   </si>
   <si>
     <t xml:space="preserve"> Um, the one that's bending down and holding something.</t>
   </si>
   <si>
-    <t>the one that's bending down and holding something</t>
-  </si>
-  <si>
-    <t>See there's a rainbow.</t>
-  </si>
-  <si>
-    <t>Pick the one that she said.</t>
-  </si>
-  <si>
-    <t>See the rainbow.</t>
-  </si>
-  <si>
-    <t>The rainbow?</t>
+    <t xml:space="preserve">the one that's bending down and holding something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See there's a rainbow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick the one that she said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See the rainbow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rainbow?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh yeah, I see the rainbow on your screen, yeah.</t>
   </si>
   <si>
-    <t>Yay! Good job! Okay, now you're the guesser and you're the teller.</t>
-  </si>
-  <si>
-    <t>The ship is having the box.</t>
+    <t xml:space="preserve">Yay! Good job! Okay, now you're the guesser and you're the teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ship is having the box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Woo! Good job! Okay, now you're the guesser, [apple127], and you're the teller, [pear128].</t>
   </si>
   <si>
-    <t>Um the one that's jumping and has the square.</t>
-  </si>
-  <si>
-    <t>the one that's jumping and has the square</t>
-  </si>
-  <si>
-    <t>Yay! Okay, now you're the guesser.</t>
-  </si>
-  <si>
-    <t>Oh my goodness, good job. Give me high fives. You guys finished. Yay! Okay, I'm going to turn off the camera really quick. Thank you guys so much. That was so good.</t>
+    <t xml:space="preserve">Um the one that's jumping and has the square.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one that’s jumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay! Okay, now you're the guesser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh my goodness, good job. Give me high fives. You guys finished. Yay! Okay, I'm going to turn off the camera really quick. Thank you guys so much. That was so good.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -658,35 +696,62 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,94 +762,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -792,33 +853,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -831,13 +883,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -847,15 +893,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -863,7 +907,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -871,11 +914,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -884,22 +927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G190" activeCellId="0" sqref="G190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="37.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,28 +954,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -939,12 +984,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>8000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -953,12 +998,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>8000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>12000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -967,12 +1012,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>12000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>19000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>19000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -981,12 +1026,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>19000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>19000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>20000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -995,12 +1040,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>20000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>25000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1009,12 +1054,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>25000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>29840.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>29840</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1023,12 +1068,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>32240.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>33040.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>32240</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>33040</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1037,12 +1082,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>37300.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>38420.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>37300</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>38420</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1051,12 +1096,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>38860.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>39440.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>38860</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>39440</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1065,12 +1110,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>39440.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>41320.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>39440</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>41320</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -1079,12 +1124,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>41320.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43420.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>41320</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>43420</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -1093,12 +1138,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>46860.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>48340.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>46860</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>48340</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1107,12 +1152,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>48340.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>48660.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>48340</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>48660</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -1121,12 +1166,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>48660.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>50320.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>48660</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>50320</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -1135,12 +1180,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>51260.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>51860.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>51260</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>51860</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -1149,12 +1194,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>51960.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>52960.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>51960</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>52960</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -1163,12 +1208,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>53340.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>55820.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>53340</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>55820</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1177,12 +1222,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>55820.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>57520.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>55820</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>57520</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -1191,12 +1236,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>57520.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>63280.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>57520</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>63280</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1205,12 +1250,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>63280.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>64280.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>63280</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>64280</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1219,12 +1264,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>64280.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>65280.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>64280</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>65280</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1233,12 +1278,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>65280.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>66280.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>65280</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>66280</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1247,12 +1292,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>66280.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>68280.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>66280</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>68280</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1261,12 +1306,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>68280.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>72020.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>68280</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>72020</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1275,12 +1320,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>72020.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>73020.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>72020</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>73020</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -1289,12 +1334,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>73020.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>75340.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>73020</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>75340</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -1303,12 +1348,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>75340.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>79280.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>75340</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>79280</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -1317,12 +1362,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>79280.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>81360.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>79280</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>81360</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -1331,12 +1376,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>81360.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>83800.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>81360</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>83800</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1345,12 +1390,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>83800.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>88200.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>83800</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>88200</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1359,12 +1404,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>88200.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>90300.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>88200</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>90300</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1373,12 +1418,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>90300.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>91480.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>90300</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>91480</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1387,12 +1432,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>91480.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>96920.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>91480</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>96920</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1401,12 +1446,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>96920.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>98860.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>96920</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>98860</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -1415,12 +1460,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>98860.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>103680.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>98860</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>103680</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1429,12 +1474,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>103680.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>105480.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>103680</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>105480</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1443,12 +1488,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>105480.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>109540.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>105480</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>109540</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
@@ -1457,12 +1502,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>109540.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>114160.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>109540</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>114160</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
@@ -1471,12 +1516,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>114160.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>120300.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>114160</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>120300</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -1485,12 +1530,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>120300.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>126380.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>120300</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>126380</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -1499,12 +1544,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>126380.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>133780.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>126380</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>133780</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
@@ -1513,12 +1558,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>133780.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>139380.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>133780</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>139380</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
@@ -1527,12 +1572,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>139380.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>142140.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>139380</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>142140</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
@@ -1541,12 +1586,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>142140.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>143560.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>142140</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>143560</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
@@ -1555,12 +1600,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>143560.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>146700.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>143560</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>146700</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
@@ -1569,12 +1614,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>146700.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>151940.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>146700</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>151940</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
@@ -1583,12 +1628,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>151940.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>154280.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>151940</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>154280</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
@@ -1597,12 +1642,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>154280.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>157620.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>154280</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>157620</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
@@ -1611,12 +1656,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>157620.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>158620.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>157620</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>158620</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
@@ -1625,12 +1670,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>158620.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>159620.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>158620</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>159620</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
@@ -1639,12 +1684,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>159620.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>160620.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>159620</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>160620</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
@@ -1653,12 +1698,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>160620.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>164620.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>160620</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>164620</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>61</v>
@@ -1667,12 +1712,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>164620.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>167800.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>164620</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>167800</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>62</v>
@@ -1681,12 +1726,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>168260.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>171320.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>168260</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>171320</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
@@ -1695,12 +1740,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>173120.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>174880.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>173120</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>174880</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
@@ -1709,12 +1754,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>176200.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>178060.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>176200</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>178060</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>65</v>
@@ -1723,12 +1768,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>178920.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>180500.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>178920</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>180500</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>66</v>
@@ -1737,12 +1782,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>180860.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>181940.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>180860</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>181940</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
@@ -1751,12 +1796,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>182100.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>186000.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>182100</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>186000</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>68</v>
@@ -1765,12 +1810,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>186380.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>190480.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>186380</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>190480</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>69</v>
@@ -1778,16 +1823,16 @@
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>190480.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>192480.0</v>
+      <c r="E62" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>190480</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>192480</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>70</v>
@@ -1802,12 +1847,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>192480.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>196800.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>192480</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>196800</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>73</v>
@@ -1816,12 +1861,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>196800.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>199200.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>196800</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>199200</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>74</v>
@@ -1830,12 +1875,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>199200.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>201440.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>199200</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>201440</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>75</v>
@@ -1850,12 +1895,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>201440.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>203200.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>201440</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>203200</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>76</v>
@@ -1864,12 +1909,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>205040.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>205440.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>205040</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>205440</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>77</v>
@@ -1878,12 +1923,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>205440.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>206400.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>205440</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>206400</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>79</v>
@@ -1892,12 +1937,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>206400.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>211040.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>206400</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>211040</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>80</v>
@@ -1906,12 +1951,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>211040.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>216960.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>211040</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>216960</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>81</v>
@@ -1919,16 +1964,16 @@
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>216960.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>218560.0</v>
+      <c r="E71" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>216960</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>218560</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>82</v>
@@ -1943,12 +1988,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>218560.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>228060.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>218560</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>228060</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>85</v>
@@ -1960,12 +2005,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>228060.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>231060.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>228060</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>231060</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>87</v>
@@ -1973,16 +2018,16 @@
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>231060.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>234060.0</v>
+      <c r="E74" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>231060</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>234060</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>88</v>
@@ -1997,12 +2042,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>234060.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>237560.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>234060</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>237560</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>90</v>
@@ -2011,12 +2056,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>237560.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>243060.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>237560</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>243060</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>91</v>
@@ -2028,12 +2073,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>237560.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>243060.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>237560</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>243060</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>93</v>
@@ -2042,12 +2087,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>243060.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>248060.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>243060</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>248060</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>94</v>
@@ -2056,12 +2101,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>248060.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>253280.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>248060</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>253280</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>95</v>
@@ -2069,16 +2114,16 @@
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>253280.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>256740.0</v>
+      <c r="E80" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>253280</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>256740</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>96</v>
@@ -2093,12 +2138,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>256740.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>257740.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>256740</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>257740</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>98</v>
@@ -2110,12 +2155,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>257740.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>259740.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>257740</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>259740</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>99</v>
@@ -2127,12 +2172,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>259740.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>260740.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>259740</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>260740</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>100</v>
@@ -2141,12 +2186,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>260740.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>262740.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>260740</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>262740</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>101</v>
@@ -2155,12 +2200,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>262740.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>265740.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>262740</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>265740</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>102</v>
@@ -2169,12 +2214,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>265740.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>267240.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>265740</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>267240</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>103</v>
@@ -2183,12 +2228,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>267240.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>268240.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>267240</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>268240</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>60</v>
@@ -2197,12 +2242,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>268240.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>271300.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>268240</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>271300</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>104</v>
@@ -2210,16 +2255,16 @@
       <c r="D89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>271300.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>278300.0</v>
+      <c r="E89" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>271300</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>278300</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>105</v>
@@ -2234,12 +2279,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>282300.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>285300.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>282300</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>285300</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>107</v>
@@ -2248,12 +2293,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>285300.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>288300.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>285300</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>288300</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>108</v>
@@ -2262,12 +2307,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>288300.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>291300.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>288300</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>291300</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>109</v>
@@ -2275,16 +2320,16 @@
       <c r="D93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>291300.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>294300.0</v>
+      <c r="E93" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>291300</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>294300</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>110</v>
@@ -2296,12 +2341,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>294300.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>297300.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>294300</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>297300</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>111</v>
@@ -2310,12 +2355,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>297300.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>299300.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>297300</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>299300</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>112</v>
@@ -2324,12 +2369,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>299300.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>304300.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>299300</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>304300</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>113</v>
@@ -2344,12 +2389,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>304300.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>306300.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>304300</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>306300</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>115</v>
@@ -2358,12 +2403,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>306300.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>307300.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>306300</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>307300</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>116</v>
@@ -2375,12 +2420,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>307300.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>308300.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>307300</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>308300</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>60</v>
@@ -2389,12 +2434,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>308300.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>310300.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>308300</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>310300</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>117</v>
@@ -2403,12 +2448,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>308300.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>310300.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>308300</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>310300</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>118</v>
@@ -2423,12 +2468,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>310300.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>313300.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>310300</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>313300</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>119</v>
@@ -2437,12 +2482,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>313300.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>315300.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>313300</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>315300</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>120</v>
@@ -2454,12 +2499,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>315300.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>317300.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>315300</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>317300</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>121</v>
@@ -2468,12 +2513,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>317300.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>319300.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>317300</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>319300</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>122</v>
@@ -2482,12 +2527,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>319300.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>321300.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>319300</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>321300</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>123</v>
@@ -2496,12 +2541,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>321300.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>323300.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>321300</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>323300</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>124</v>
@@ -2513,12 +2558,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>323300.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>326300.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>323300</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>326300</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>125</v>
@@ -2527,12 +2572,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>326300.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>327300.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>326300</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>327300</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>126</v>
@@ -2541,12 +2586,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>327300.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>329300.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>327300</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>329300</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>127</v>
@@ -2555,12 +2600,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>329300.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>331300.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>329300</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>331300</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>128</v>
@@ -2572,12 +2617,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>331300.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>335300.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>331300</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>335300</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>129</v>
@@ -2592,12 +2637,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>335300.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>337300.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>335300</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>337300</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>131</v>
@@ -2609,12 +2654,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>337300.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>349300.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>337300</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>349300</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>132</v>
@@ -2626,12 +2671,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>349300.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>351300.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>349300</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>351300</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>133</v>
@@ -2643,12 +2688,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>351300.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>353300.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>351300</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>353300</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>134</v>
@@ -2663,12 +2708,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>353300.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>356300.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>353300</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>356300</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>136</v>
@@ -2677,12 +2722,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>356300.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>362940.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>356300</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>362940</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>137</v>
@@ -2690,16 +2735,16 @@
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>364500.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>368900.0</v>
+      <c r="E119" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>364500</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>368900</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>138</v>
@@ -2714,12 +2759,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>369300.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>370300.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>369300</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>370300</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>77</v>
@@ -2728,12 +2773,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>370300.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>371300.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>370300</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>371300</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>77</v>
@@ -2742,12 +2787,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>371800.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>376000.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>371800</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>376000</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>140</v>
@@ -2755,16 +2800,16 @@
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>378600.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>379800.0</v>
+      <c r="E123" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>378600</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>379800</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>141</v>
@@ -2776,12 +2821,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>380800.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>387200.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>380800</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>387200</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>142</v>
@@ -2796,12 +2841,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>387200.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>390200.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>387200</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>390200</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>144</v>
@@ -2813,12 +2858,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>390200.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>392200.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>390200</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>392200</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>77</v>
@@ -2827,12 +2872,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>392200.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>398200.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>392200</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>398200</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>145</v>
@@ -2840,16 +2885,16 @@
       <c r="D128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>398200.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>405200.0</v>
+      <c r="E128" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>398200</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>405200</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>146</v>
@@ -2864,12 +2909,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>405200.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>407200.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>405200</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>407200</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>77</v>
@@ -2878,12 +2923,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>407200.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>413200.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>407200</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>413200</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>147</v>
@@ -2891,16 +2936,16 @@
       <c r="D131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>413200.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>419200.0</v>
+      <c r="E131" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>413200</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>419200</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>148</v>
@@ -2915,12 +2960,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>421200.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>422200.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>421200</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>422200</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>77</v>
@@ -2929,12 +2974,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>422200.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>424200.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>422200</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>424200</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>79</v>
@@ -2943,26 +2988,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>424200.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>428200.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>424200</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>428200</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E135" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>428200.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>430200.0</v>
+      <c r="E135" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>428200</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>430200</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>151</v>
@@ -2977,12 +3022,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>434200.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>435200.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>434200</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>435200</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>152</v>
@@ -2991,12 +3036,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>435200.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>438200.0</v>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>435200</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>438200</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>79</v>
@@ -3005,12 +3050,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>438200.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>442200.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>438200</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>442200</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>140</v>
@@ -3018,16 +3063,16 @@
       <c r="D139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>442200.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>445200.0</v>
+      <c r="E139" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>442200</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>445200</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>153</v>
@@ -3042,12 +3087,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>445200.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>449200.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>445200</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>449200</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>155</v>
@@ -3062,12 +3107,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>449200.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>451200.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>449200</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>451200</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>120</v>
@@ -3079,12 +3124,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>451200.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>453200.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>451200</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>453200</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>77</v>
@@ -3093,12 +3138,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>453200.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>458200.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>453200</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>458200</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>157</v>
@@ -3106,16 +3151,16 @@
       <c r="D144" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E144" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>458200.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>466200.0</v>
+      <c r="E144" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>458200</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>466200</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>158</v>
@@ -3130,12 +3175,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>466200.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>472200.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>466200</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>472200</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>160</v>
@@ -3144,12 +3189,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>472200.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>480200.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>472200</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>480200</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>161</v>
@@ -3157,16 +3202,16 @@
       <c r="D147" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>480200.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>484200.0</v>
+      <c r="E147" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>480200</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>484200</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>162</v>
@@ -3181,12 +3226,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>484200.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>494200.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>484200</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>494200</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>164</v>
@@ -3195,12 +3240,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>494200.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>497200.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>494200</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>497200</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>165</v>
@@ -3212,12 +3257,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>497200.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>501200.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>497200</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>501200</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>166</v>
@@ -3225,16 +3270,16 @@
       <c r="D151" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E151" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>501200.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>505200.0</v>
+      <c r="E151" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>501200</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>505200</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>167</v>
@@ -3249,12 +3294,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>506200.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>507200.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>506200</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>507200</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>77</v>
@@ -3263,12 +3308,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>508200.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>509200.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>508200</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>509200</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>60</v>
@@ -3277,12 +3322,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>509200.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>511200.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>509200</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>511200</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>168</v>
@@ -3290,16 +3335,16 @@
       <c r="D155" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E155" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>511200.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>513200.0</v>
+      <c r="E155" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>511200</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>513200</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>169</v>
@@ -3308,12 +3353,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>513200.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>516200.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>513200</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>516200</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>170</v>
@@ -3328,12 +3373,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>520200.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>521200.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>520200</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>521200</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>77</v>
@@ -3342,12 +3387,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>523200.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>524200.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>523200</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>524200</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>60</v>
@@ -3356,12 +3401,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>523200.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>524200.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>523200</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>524200</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>171</v>
@@ -3373,12 +3418,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>524200.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>525200.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>524200</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>525200</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>172</v>
@@ -3387,12 +3432,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>524200.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>525200.0</v>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>524200</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>525200</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>173</v>
@@ -3404,12 +3449,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>525200.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>526200.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>525200</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>526200</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>174</v>
@@ -3418,12 +3463,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>526200.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>528200.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>526200</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>528200</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>175</v>
@@ -3432,12 +3477,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>528200.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>529200.0</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>528200</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>529200</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>176</v>
@@ -3446,12 +3491,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>529200.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>530200.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>529200</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>530200</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>177</v>
@@ -3460,12 +3505,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>530200.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>532200.0</v>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>530200</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>532200</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>178</v>
@@ -3474,12 +3519,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>532200.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>537200.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>532200</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>537200</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>179</v>
@@ -3491,12 +3536,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>537200.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>539200.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>537200</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>539200</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>180</v>
@@ -3505,12 +3550,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>539200.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>542200.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>539200</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>542200</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>181</v>
@@ -3522,12 +3567,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>542200.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>543200.0</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>542200</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>543200</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>182</v>
@@ -3536,12 +3581,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>543200.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>546200.0</v>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>543200</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>546200</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>183</v>
@@ -3549,16 +3594,16 @@
       <c r="D172" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>546200.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>555200.0</v>
+      <c r="E172" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>546200</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>555200</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>184</v>
@@ -3573,12 +3618,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>555200.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>557200.0</v>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>555200</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>557200</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>186</v>
@@ -3590,12 +3635,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>557200.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>565200.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>557200</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>565200</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>136</v>
@@ -3604,12 +3649,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>565200.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>569200.0</v>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>565200</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>569200</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>140</v>
@@ -3617,16 +3662,16 @@
       <c r="D176" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E176" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>569200.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>573200.0</v>
+      <c r="E176" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>569200</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>573200</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>187</v>
@@ -3641,12 +3686,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>573200.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>576200.0</v>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>573200</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>576200</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>189</v>
@@ -3658,12 +3703,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>576200.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>578200.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>576200</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>578200</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>190</v>
@@ -3672,12 +3717,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>578200.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>580200.0</v>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>578200</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>580200</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>191</v>
@@ -3689,12 +3734,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>580200.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>581200.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>580200</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>581200</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>192</v>
@@ -3703,12 +3748,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>581200.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>584200.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>581200</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>584200</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>193</v>
@@ -3717,12 +3762,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>584200.0</v>
-      </c>
-      <c r="B183" s="1">
-        <v>585200.0</v>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>584200</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>585200</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>77</v>
@@ -3731,12 +3776,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1">
-        <v>585200.0</v>
-      </c>
-      <c r="B184" s="1">
-        <v>590400.0</v>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>585200</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>590400</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>194</v>
@@ -3745,12 +3790,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1">
-        <v>592480.0</v>
-      </c>
-      <c r="B185" s="1">
-        <v>594640.0</v>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>592480</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>594640</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>195</v>
@@ -3758,8 +3803,8 @@
       <c r="D185" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E185" s="1">
-        <v>18.0</v>
+      <c r="E185" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>71</v>
@@ -3768,12 +3813,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1">
-        <v>595840.0</v>
-      </c>
-      <c r="B186" s="1">
-        <v>601360.0</v>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>595840</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>601360</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>196</v>
@@ -3782,12 +3827,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1">
-        <v>601840.0</v>
-      </c>
-      <c r="B187" s="1">
-        <v>604720.0</v>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>601840</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>604720</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>197</v>
@@ -3795,8 +3840,8 @@
       <c r="D187" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E187" s="1">
-        <v>19.0</v>
+      <c r="E187" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>71</v>
@@ -3805,12 +3850,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1">
-        <v>608880.0</v>
-      </c>
-      <c r="B188" s="1">
-        <v>613040.0</v>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>608880</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>613040</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>199</v>
@@ -3819,12 +3864,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1">
-        <v>613040.0</v>
-      </c>
-      <c r="B189" s="1">
-        <v>622880.0</v>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>613040</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>622880</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>200</v>
@@ -3834,7 +3879,13 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game30.xlsx
+++ b/data/expt_2/raw_transcripts/game30.xlsx
@@ -105,13 +105,13 @@
     <t xml:space="preserve">What is this?</t>
   </si>
   <si>
-    <t xml:space="preserve">apple127</t>
+    <t xml:space="preserve">id76</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, those are smiley face bubbles.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oh, good job, [pear128].</t>
+    <t xml:space="preserve">Oh, good job, [id77].</t>
   </si>
   <si>
     <t xml:space="preserve">can I see?</t>
@@ -135,10 +135,10 @@
     <t xml:space="preserve">Do you guys want to say hi?</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi [pear128].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hi, [apple127].</t>
+    <t xml:space="preserve">Hi [id77].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hi, [id76].</t>
   </si>
   <si>
     <t xml:space="preserve">This is Smurphy.</t>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">And so you're going to be the guesser and you're going to be the teller.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, so can you tell Smurphy and [pear128] what's on your screen, [apple127]?</t>
+    <t xml:space="preserve"> Okay, so can you tell Smurphy and [id77] what's on your screen, [id76]?</t>
   </si>
   <si>
     <t xml:space="preserve"> The- the apple's, the- the apple's, the- the box.</t>
@@ -285,28 +285,28 @@
     <t xml:space="preserve">Good job!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, so now you're the teller, [pear128], and you're the guesser, [apple127].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes, so can you tell [apple127] and Smurphy which picture has the box around it?</t>
+    <t xml:space="preserve"> Okay, so now you're the teller, [id77], and you're the guesser, [id76].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, so can you tell [id76] and Smurphy which picture has the box around it?</t>
   </si>
   <si>
     <t xml:space="preserve">umm, the bird.</t>
   </si>
   <si>
-    <t xml:space="preserve">pear128</t>
+    <t xml:space="preserve">id77</t>
   </si>
   <si>
     <t xml:space="preserve">the bird</t>
   </si>
   <si>
-    <t xml:space="preserve"> The bird. Yay! Good job! Okay, so now you are the guesser, [pear128], and you are the teller, [apple127].</t>
+    <t xml:space="preserve"> The bird. Yay! Good job! Okay, so now you are the guesser, [id77], and you are the teller, [id76].</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Can you tell [pear128] which picture is inside the box?</t>
+    <t xml:space="preserve">Can you tell [id77] which picture is inside the box?</t>
   </si>
   <si>
     <t xml:space="preserve">The box is the house.</t>
@@ -327,10 +327,10 @@
     <t xml:space="preserve"> Oh, touch it. Make sure you touch it.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Good job! Great job! Okay, so now you're the guesser, [apple127].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and you're the teller [pear128] can you tell your guesser which one has the box around it?</t>
+    <t xml:space="preserve"> Good job! Great job! Okay, so now you're the guesser, [id76].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and you're the teller [id77] can you tell your guesser which one has the box around it?</t>
   </si>
   <si>
     <t xml:space="preserve">The tree.</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">You guys are doing great.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Now you're the guesser, [pear128] and you're the teller, [apple127]?</t>
+    <t xml:space="preserve"> Now you're the guesser, [id77] and you're the teller, [id76]?</t>
   </si>
   <si>
     <t xml:space="preserve">The human that is walking has the box.</t>
@@ -369,10 +369,10 @@
     <t xml:space="preserve">Yay! Good job!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, you guys are doing amazing. You're going to be the guesser, [apple127]?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And you're going to be the teller, [pear128].</t>
+    <t xml:space="preserve"> Okay, you guys are doing amazing. You're going to be the guesser, [id76]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And you're going to be the teller, [id77].</t>
   </si>
   <si>
     <t xml:space="preserve">What is that one?</t>
@@ -390,7 +390,7 @@
     <t xml:space="preserve">a square like walking</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, did you hear that, [apple127]?</t>
+    <t xml:space="preserve"> Okay, did you hear that, [id76]?</t>
   </si>
   <si>
     <t xml:space="preserve">Uh-huh.</t>
@@ -456,7 +456,7 @@
     <t xml:space="preserve"> Yay, good job!</t>
   </si>
   <si>
-    <t xml:space="preserve">You guys did so good. Okay, so now you're the guesser, [pear128], and you're the teller, [apple127].</t>
+    <t xml:space="preserve">You guys did so good. Okay, so now you're the guesser, [id77], and you're the teller, [id76].</t>
   </si>
   <si>
     <t xml:space="preserve">The ship is the one that has the square, the square.</t>
@@ -465,7 +465,7 @@
     <t xml:space="preserve">the ship</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser, [apple127], and you're the teller, [pear128].</t>
+    <t xml:space="preserve"> Okay, now you're the guesser, [id76], and you're the teller, [id77].</t>
   </si>
   <si>
     <t xml:space="preserve">It's the same.</t>
@@ -480,13 +480,13 @@
     <t xml:space="preserve">and holding something.</t>
   </si>
   <si>
-    <t xml:space="preserve">Yay! Okay, so now you're the guesser, [pear128], and you're the teller, [apple127].</t>
+    <t xml:space="preserve">Yay! Okay, so now you're the guesser, [id77], and you're the teller, [id76].</t>
   </si>
   <si>
     <t xml:space="preserve">The one bending down and holding something is having the box.</t>
   </si>
   <si>
-    <t xml:space="preserve"> You're the guesser now, [apple127], and you're the teller, [pear128].</t>
+    <t xml:space="preserve"> You're the guesser now, [id76], and you're the teller, [id77].</t>
   </si>
   <si>
     <t xml:space="preserve">The one that's walking is the one it- it- it is the box on it.</t>
@@ -495,7 +495,7 @@
     <t xml:space="preserve">the one that's walking</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser, [pear128], and you're the teller, [apple127].</t>
+    <t xml:space="preserve"> Okay, now you're the guesser, [id77], and you're the teller, [id76].</t>
   </si>
   <si>
     <t xml:space="preserve">The ship has the box.</t>
@@ -516,7 +516,7 @@
     <t xml:space="preserve">And has feet</t>
   </si>
   <si>
-    <t xml:space="preserve">Okay, now you're the guesser, [pear128], and you're the teller, [apple127].</t>
+    <t xml:space="preserve">Okay, now you're the guesser, [id77], and you're the teller, [id76].</t>
   </si>
   <si>
     <t xml:space="preserve"> The human that is walking, bending its head down, is having the square.</t>
@@ -528,7 +528,7 @@
     <t xml:space="preserve">Just touch it, yeah.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oh, that's okay. We can try again. That's okay. Here, now you're gonna be the guesser, [apple127]. And you'll be the teller, [pear128].</t>
+    <t xml:space="preserve"> Oh, that's okay. We can try again. That's okay. Here, now you're gonna be the guesser, [id76]. And you'll be the teller, [id77].</t>
   </si>
   <si>
     <t xml:space="preserve">The one that's bending down and putting something.</t>
@@ -537,22 +537,22 @@
     <t xml:space="preserve">the one that's bending down and putting something</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ooh, that's okay. We'll keep trying. We'll keep trying. Here. You're gonna be the guesser, [pear128], and you'll be the teller, [apple127].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's because I didn't hear what [pear128] say.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah, tell [pear128] what you see in your square.</t>
+    <t xml:space="preserve"> Ooh, that's okay. We'll keep trying. We'll keep trying. Here. You're gonna be the guesser, [id77], and you'll be the teller, [id76].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's because I didn't hear what [id77] say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeah, tell [id77] what you see in your square.</t>
   </si>
   <si>
     <t xml:space="preserve">The ship is- the ship is having the box.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Now you're going to be the guesser, [apple127].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And you'll be the teller, [pear128].</t>
+    <t xml:space="preserve"> Now you're going to be the guesser, [id76].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And you'll be the teller, [id77].</t>
   </si>
   <si>
     <t xml:space="preserve">The one that's jumping and has the square.</t>
@@ -594,7 +594,7 @@
     <t xml:space="preserve">Aw.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, tell [pear128] what you see in the box.</t>
+    <t xml:space="preserve"> Okay, tell [id77] what you see in the box.</t>
   </si>
   <si>
     <t xml:space="preserve">The human that is bending down his head like this, is is is is having the square.</t>
@@ -633,7 +633,7 @@
     <t xml:space="preserve">The ship is having the box.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Woo! Good job! Okay, now you're the guesser, [apple127], and you're the teller, [pear128].</t>
+    <t xml:space="preserve"> Woo! Good job! Okay, now you're the guesser, [id76], and you're the teller, [id77].</t>
   </si>
   <si>
     <t xml:space="preserve">Um the one that's jumping and has the square.</t>
@@ -733,12 +733,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,2945 +940,2945 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G190" activeCellId="0" sqref="G190"/>
+      <selection pane="bottomLeft" activeCell="G190" activeCellId="35" sqref="C14 C23 C62 C70 C73:C74 C80 C89 C93 C119 C123 C128 C131 C135 C139 C144 C147 C149:C151 C156 C172 C176 C186 D72 D77 D81 D94 D97 D112:D113 D117 D124:D126 D132 D140:D141 D148 D157 D177 D187 G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>12000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>12000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>19000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>19000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>25000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>25000</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>29840</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>32240</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>33040</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>37300</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>38420</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>38860</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>39440</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>39440</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>41320</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>41320</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>43420</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>46860</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>48340</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>48340</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>48660</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>48660</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>50320</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>51260</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>51860</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>51960</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>52960</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>53340</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>55820</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>55820</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>57520</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>57520</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>63280</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>63280</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>64280</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>64280</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>65280</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>65280</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>66280</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>66280</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>68280</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>68280</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>72020</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>72020</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>73020</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>73020</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>75340</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>75340</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>79280</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>79280</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>81360</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>81360</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>83800</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>83800</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>88200</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>88200</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>90300</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>90300</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>91480</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>91480</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>96920</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>96920</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>98860</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>98860</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>103680</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>103680</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>105480</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>105480</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>109540</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>109540</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>114160</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>114160</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>120300</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>120300</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>126380</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>126380</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>133780</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>133780</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>139380</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>139380</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>142140</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>142140</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>143560</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>143560</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>146700</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>146700</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>151940</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>151940</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>154280</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>154280</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>157620</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>157620</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>158620</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>158620</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>159620</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>159620</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>160620</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>160620</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>164620</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>164620</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>167800</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>168260</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>171320</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>173120</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>174880</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>176200</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>178060</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>178920</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>180500</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>180860</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>181940</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>182100</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>186000</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>186380</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>190480</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1" t="n">
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>190480</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>192480</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>192480</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>196800</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>196800</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>199200</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>199200</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>201440</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>201440</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>203200</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>205040</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>205440</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>205440</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>206400</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>206400</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>211040</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>211040</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>216960</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1" t="n">
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>216960</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>218560</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>218560</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>228060</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="D73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>228060</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>231060</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="n">
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>231060</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>234060</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>234060</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>237560</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>237560</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>243060</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>237560</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>243060</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>243060</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>248060</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>248060</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>253280</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="1" t="n">
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>253280</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>256740</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>256740</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>257740</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>257740</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>259740</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>259740</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>260740</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>260740</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>262740</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>262740</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>265740</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>265740</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>267240</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>267240</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>268240</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>268240</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>271300</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="1" t="n">
+      <c r="D89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>271300</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>278300</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>282300</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>285300</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>285300</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>288300</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>288300</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>291300</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="1" t="n">
+      <c r="D93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>291300</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>294300</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>294300</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>297300</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>297300</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>299300</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>299300</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>304300</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>304300</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>306300</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>306300</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>307300</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>307300</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>308300</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>308300</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>310300</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>308300</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>310300</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>310300</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>313300</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>313300</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>315300</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>315300</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>317300</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>317300</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>319300</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>319300</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>321300</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>321300</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>323300</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>323300</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>326300</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>326300</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>327300</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>327300</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>329300</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>329300</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>331300</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>331300</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>335300</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>335300</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>337300</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>337300</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>349300</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>349300</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>351300</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>351300</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>353300</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>353300</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>356300</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>356300</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>362940</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="1" t="n">
+      <c r="D119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>364500</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>368900</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>369300</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>370300</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>370300</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>371300</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>371800</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>376000</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="1" t="n">
+      <c r="D123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>378600</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>379800</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>380800</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>387200</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>387200</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>390200</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>390200</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>392200</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>392200</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>398200</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="1" t="n">
+      <c r="D128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>398200</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>405200</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H129" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>405200</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>407200</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>407200</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>413200</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="1" t="n">
+      <c r="D131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>413200</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>419200</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H132" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>421200</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>422200</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>422200</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>424200</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>424200</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>428200</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E135" s="1" t="n">
+      <c r="E135" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>428200</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>430200</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="H136" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>434200</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>435200</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>435200</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>438200</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>438200</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>442200</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="1" t="n">
+      <c r="D139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>442200</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>445200</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H140" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>445200</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>449200</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="H141" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>449200</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>451200</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>451200</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>453200</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>453200</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>458200</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" s="1" t="n">
+      <c r="D144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>458200</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>466200</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>466200</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>472200</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>472200</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>480200</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="1" t="n">
+      <c r="D147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>480200</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>484200</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>484200</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>494200</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>494200</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>497200</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>497200</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>501200</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="1" t="n">
+      <c r="D151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>501200</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>505200</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H152" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>506200</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>507200</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>508200</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>509200</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>509200</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>511200</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="1" t="n">
+      <c r="D155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>511200</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>513200</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>513200</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>516200</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>520200</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>521200</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>523200</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>524200</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>523200</v>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="2" t="n">
         <v>524200</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>524200</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>525200</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>524200</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="2" t="n">
         <v>525200</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>525200</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="2" t="n">
         <v>526200</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>526200</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="2" t="n">
         <v>528200</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>528200</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="2" t="n">
         <v>529200</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>529200</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="2" t="n">
         <v>530200</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>530200</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="2" t="n">
         <v>532200</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>532200</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="2" t="n">
         <v>537200</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>537200</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="2" t="n">
         <v>539200</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>539200</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="2" t="n">
         <v>542200</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>542200</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="2" t="n">
         <v>543200</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>543200</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="2" t="n">
         <v>546200</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="1" t="n">
+      <c r="D172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>546200</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="2" t="n">
         <v>555200</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H173" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>555200</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="2" t="n">
         <v>557200</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>557200</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="2" t="n">
         <v>565200</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>565200</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="2" t="n">
         <v>569200</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="1" t="n">
+      <c r="D176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="2" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>569200</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="2" t="n">
         <v>573200</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="H177" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>573200</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="2" t="n">
         <v>576200</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>576200</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="2" t="n">
         <v>578200</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>578200</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="2" t="n">
         <v>580200</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F180" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>580200</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="2" t="n">
         <v>581200</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>581200</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="2" t="n">
         <v>584200</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>584200</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="2" t="n">
         <v>585200</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>585200</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="2" t="n">
         <v>590400</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>592480</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="2" t="n">
         <v>594640</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E185" s="1" t="n">
+      <c r="E185" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F185" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H185" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>595840</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="2" t="n">
         <v>601360</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>601840</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="2" t="n">
         <v>604720</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E187" s="1" t="n">
+      <c r="E187" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="F187" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="H187" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>608880</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="2" t="n">
         <v>613040</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>613040</v>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="2" t="n">
         <v>622880</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game30.xlsx
+++ b/data/expt_2/raw_transcripts/game30.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="203">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -69,6 +69,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Okay, great! Now we're recording!</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
     <t xml:space="preserve">the apple</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">So you're going to help Smurphy guess which picture has the box.</t>
   </si>
   <si>
@@ -303,9 +309,6 @@
     <t xml:space="preserve"> The bird. Yay! Good job! Okay, so now you are the guesser, [id77], and you are the teller, [id76].</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Can you tell [id77] which picture is inside the box?</t>
   </si>
   <si>
@@ -600,12 +603,15 @@
     <t xml:space="preserve">The human that is bending down his head like this, is is is is having the square.</t>
   </si>
   <si>
-    <t xml:space="preserve">the human that is bending down his head like this and walking</t>
+    <t xml:space="preserve">the human that is bending down his head like this is having the square</t>
   </si>
   <si>
     <t xml:space="preserve">and walking.</t>
   </si>
   <si>
+    <t xml:space="preserve">and walking</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Um, the one that's bending down and holding something.</t>
   </si>
   <si>
@@ -639,7 +645,7 @@
     <t xml:space="preserve">Um the one that's jumping and has the square.</t>
   </si>
   <si>
-    <t xml:space="preserve">the one that’s jumping</t>
+    <t xml:space="preserve">the one that’s jumping and has the square</t>
   </si>
   <si>
     <t xml:space="preserve">Yay! Okay, now you're the guesser.</t>
@@ -655,7 +661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -684,6 +690,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -733,7 +745,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -743,6 +755,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -935,12 +955,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G190" activeCellId="35" sqref="C14 C23 C62 C70 C73:C74 C80 C89 C93 C119 C123 C128 C131 C135 C139 C144 C147 C149:C151 C156 C172 C176 C186 D72 D77 D81 D94 D97 D112:D113 D117 D124:D126 D132 D140:D141 D148 D157 D177 D187 G190"/>
+      <selection pane="bottomLeft" activeCell="G189" activeCellId="0" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -973,6 +993,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -982,10 +1005,10 @@
         <v>4000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,10 +1019,10 @@
         <v>8000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,10 +1033,10 @@
         <v>12000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,10 +1047,10 @@
         <v>19000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,10 +1061,10 @@
         <v>20000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,10 +1075,10 @@
         <v>25000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,10 +1089,10 @@
         <v>29840</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,10 +1103,10 @@
         <v>33040</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,10 +1117,10 @@
         <v>38420</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,10 +1131,10 @@
         <v>39440</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,10 +1145,10 @@
         <v>41320</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,10 +1159,10 @@
         <v>43420</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,10 +1173,10 @@
         <v>48340</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,10 +1187,10 @@
         <v>48660</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,10 +1201,10 @@
         <v>50320</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,10 +1215,10 @@
         <v>51860</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,10 +1229,10 @@
         <v>52960</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,10 +1243,10 @@
         <v>55820</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,10 +1257,10 @@
         <v>57520</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,10 +1271,10 @@
         <v>63280</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,10 +1285,10 @@
         <v>64280</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,10 +1299,10 @@
         <v>65280</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,10 +1313,10 @@
         <v>66280</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,10 +1327,10 @@
         <v>68280</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,10 +1341,10 @@
         <v>72020</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,10 +1355,10 @@
         <v>73020</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,10 +1369,10 @@
         <v>75340</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,10 +1383,10 @@
         <v>79280</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,10 +1397,10 @@
         <v>81360</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,10 +1411,10 @@
         <v>83800</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,10 +1425,10 @@
         <v>88200</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,10 +1439,10 @@
         <v>90300</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,10 +1453,10 @@
         <v>91480</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,10 +1467,10 @@
         <v>96920</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,10 +1481,10 @@
         <v>98860</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,10 +1495,10 @@
         <v>103680</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,10 +1509,10 @@
         <v>105480</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,10 +1523,10 @@
         <v>109540</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,10 +1537,10 @@
         <v>114160</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,10 +1551,10 @@
         <v>120300</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,10 +1565,10 @@
         <v>126380</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,10 +1579,10 @@
         <v>133780</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,10 +1593,10 @@
         <v>139380</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,10 +1607,10 @@
         <v>142140</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,10 +1621,10 @@
         <v>143560</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,10 +1635,10 @@
         <v>146700</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,10 +1649,10 @@
         <v>151940</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,10 +1663,10 @@
         <v>154280</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,10 +1677,10 @@
         <v>157620</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,10 +1691,10 @@
         <v>158620</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,10 +1705,10 @@
         <v>159620</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,10 +1719,10 @@
         <v>160620</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,10 +1733,10 @@
         <v>164620</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,10 +1747,10 @@
         <v>167800</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,10 +1761,10 @@
         <v>171320</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,10 +1775,10 @@
         <v>174880</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,10 +1789,10 @@
         <v>178060</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,10 +1803,10 @@
         <v>180500</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,10 +1817,10 @@
         <v>181940</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,10 +1831,10 @@
         <v>186000</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,10 +1845,10 @@
         <v>190480</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -1839,16 +1862,19 @@
         <v>192480</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,10 +1885,10 @@
         <v>196800</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,10 +1899,10 @@
         <v>199200</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,16 +1913,19 @@
         <v>201440</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,10 +1936,10 @@
         <v>203200</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,10 +1950,10 @@
         <v>205440</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,10 +1964,10 @@
         <v>206400</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,10 +1978,10 @@
         <v>211040</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,10 +1992,10 @@
         <v>216960</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>1</v>
@@ -1980,16 +2009,19 @@
         <v>218560</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,13 +2032,13 @@
         <v>228060</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,10 +2049,10 @@
         <v>231060</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>2</v>
@@ -2034,16 +2066,19 @@
         <v>234060</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,10 +2089,10 @@
         <v>237560</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,13 +2103,16 @@
         <v>243060</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,10 +2123,10 @@
         <v>243060</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,10 +2137,10 @@
         <v>248060</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,10 +2151,10 @@
         <v>253280</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>3</v>
@@ -2130,16 +2168,19 @@
         <v>256740</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,13 +2191,16 @@
         <v>257740</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,13 +2211,16 @@
         <v>259740</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,10 +2231,10 @@
         <v>260740</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,10 +2245,10 @@
         <v>262740</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,10 +2259,10 @@
         <v>265740</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,10 +2273,10 @@
         <v>267240</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,10 +2287,10 @@
         <v>268240</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,10 +2301,10 @@
         <v>271300</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>4</v>
@@ -2271,16 +2318,19 @@
         <v>278300</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,10 +2341,10 @@
         <v>285300</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,10 +2355,10 @@
         <v>288300</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,10 +2369,10 @@
         <v>291300</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>5</v>
@@ -2336,13 +2386,16 @@
         <v>294300</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,10 +2406,10 @@
         <v>297300</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,10 +2420,10 @@
         <v>299300</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,16 +2434,19 @@
         <v>304300</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,10 +2457,10 @@
         <v>306300</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,13 +2471,13 @@
         <v>307300</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,10 +2488,10 @@
         <v>308300</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,10 +2502,10 @@
         <v>310300</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,16 +2516,19 @@
         <v>310300</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,10 +2539,10 @@
         <v>313300</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,13 +2553,16 @@
         <v>315300</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2573,13 @@
         <v>317300</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,10 +2590,10 @@
         <v>319300</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,10 +2604,10 @@
         <v>321300</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,13 +2618,16 @@
         <v>323300</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2638,10 @@
         <v>326300</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,10 +2652,10 @@
         <v>327300</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,10 +2666,10 @@
         <v>329300</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,13 +2680,16 @@
         <v>331300</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,16 +2700,19 @@
         <v>335300</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,13 +2723,16 @@
         <v>337300</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,13 +2743,16 @@
         <v>349300</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,13 +2763,16 @@
         <v>351300</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,16 +2783,19 @@
         <v>353300</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +2806,10 @@
         <v>356300</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,10 +2820,10 @@
         <v>362940</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>6</v>
@@ -2751,16 +2837,19 @@
         <v>368900</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,10 +2860,10 @@
         <v>370300</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,10 +2874,10 @@
         <v>371300</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,10 +2888,10 @@
         <v>376000</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>7</v>
@@ -2816,13 +2905,16 @@
         <v>379800</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,16 +2925,19 @@
         <v>387200</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,13 +2948,16 @@
         <v>390200</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,10 +2968,10 @@
         <v>392200</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,10 +2982,10 @@
         <v>398200</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>8</v>
@@ -2901,16 +2999,19 @@
         <v>405200</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,10 +3022,10 @@
         <v>407200</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,10 +3036,10 @@
         <v>413200</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>9</v>
@@ -2952,16 +3053,19 @@
         <v>419200</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,10 +3076,10 @@
         <v>422200</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,10 +3090,10 @@
         <v>424200</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3104,10 @@
         <v>428200</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>10</v>
@@ -3014,16 +3121,19 @@
         <v>430200</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,10 +3144,10 @@
         <v>435200</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3158,10 @@
         <v>438200</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,10 +3172,10 @@
         <v>442200</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>11</v>
@@ -3079,16 +3189,19 @@
         <v>445200</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,16 +3212,19 @@
         <v>449200</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,13 +3235,16 @@
         <v>451200</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,10 +3255,10 @@
         <v>453200</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,10 +3269,10 @@
         <v>458200</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>12</v>
@@ -3167,16 +3286,19 @@
         <v>466200</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,10 +3309,10 @@
         <v>472200</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,10 +3323,10 @@
         <v>480200</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>13</v>
@@ -3218,16 +3340,19 @@
         <v>484200</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,10 +3363,10 @@
         <v>494200</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,13 +3377,13 @@
         <v>497200</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +3394,10 @@
         <v>501200</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>14</v>
@@ -3286,16 +3411,19 @@
         <v>505200</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,10 +3434,10 @@
         <v>507200</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3448,10 @@
         <v>509200</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3462,10 @@
         <v>511200</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>15</v>
@@ -3351,10 +3479,10 @@
         <v>513200</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,16 +3493,19 @@
         <v>516200</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,10 +3516,10 @@
         <v>521200</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,10 +3530,10 @@
         <v>524200</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,13 +3544,13 @@
         <v>524200</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,10 +3561,10 @@
         <v>525200</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,13 +3575,13 @@
         <v>525200</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,10 +3592,10 @@
         <v>526200</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,10 +3606,10 @@
         <v>528200</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,10 +3620,10 @@
         <v>529200</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3503,10 +3634,10 @@
         <v>530200</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,10 +3648,10 @@
         <v>532200</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,13 +3662,13 @@
         <v>537200</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,10 +3679,10 @@
         <v>539200</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,13 +3693,13 @@
         <v>542200</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,10 +3710,10 @@
         <v>543200</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,10 +3724,10 @@
         <v>546200</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" s="2" t="n">
         <v>16</v>
@@ -3610,16 +3741,19 @@
         <v>555200</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,13 +3764,19 @@
         <v>557200</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,10 +3787,10 @@
         <v>565200</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,10 +3801,10 @@
         <v>569200</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" s="2" t="n">
         <v>17</v>
@@ -3678,16 +3818,19 @@
         <v>573200</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,13 +3841,13 @@
         <v>576200</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,10 +3858,10 @@
         <v>578200</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,13 +3872,13 @@
         <v>580200</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,10 +3889,10 @@
         <v>581200</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,10 +3903,10 @@
         <v>584200</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,10 +3917,10 @@
         <v>585200</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,10 +3931,10 @@
         <v>590400</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,19 +3945,22 @@
         <v>594640</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,10 +3971,10 @@
         <v>601360</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,19 +3985,22 @@
         <v>604720</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>19</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,10 +4011,10 @@
         <v>613040</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,10 +4025,10 @@
         <v>622880</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game30.xlsx
+++ b/data/expt_2/raw_transcripts/game30.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="203">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -661,7 +661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -690,12 +690,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -758,11 +752,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -958,9 +952,9 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G189" activeCellId="0" sqref="G189"/>
+      <selection pane="bottomLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2578,6 +2572,9 @@
       <c r="D105" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F105" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="I105" s="3" t="s">
         <v>74</v>
       </c>
@@ -3826,7 +3823,7 @@
       <c r="F177" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H177" s="4" t="s">
+      <c r="H177" s="2" t="s">
         <v>190</v>
       </c>
       <c r="I177" s="3" t="s">

--- a/data/expt_2/raw_transcripts/game30.xlsx
+++ b/data/expt_2/raw_transcripts/game30.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="203">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -645,7 +645,7 @@
     <t xml:space="preserve">Um the one that's jumping and has the square.</t>
   </si>
   <si>
-    <t xml:space="preserve">the one that’s jumping and has the square</t>
+    <t xml:space="preserve">the one that’s jumping </t>
   </si>
   <si>
     <t xml:space="preserve">Yay! Okay, now you're the guesser.</t>
@@ -739,7 +739,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -753,10 +753,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -952,9 +948,9 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
+      <selection pane="bottomLeft" activeCell="F187" activeCellId="0" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1915,9 +1911,7 @@
       <c r="F66" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="3" t="s">
         <v>74</v>
       </c>
@@ -2572,7 +2566,7 @@
       <c r="D105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I105" s="3" t="s">
